--- a/documents/time-records/Fritz_Verena_c7031304.xlsx
+++ b/documents/time-records/Fritz_Verena_c7031304.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolia\Documents\erweiterungsstudium\swe\PS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolia\git\g1t1\documents\time-records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E0416-71A9-48FC-A28F-772C562B8835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA44143-2E16-40B5-B441-6FBBC7526FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30000" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -771,10 +771,10 @@
   <dimension ref="A1:D1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1377,7 +1377,7 @@
         <v>44307</v>
       </c>
       <c r="B43" s="6">
-        <v>4.3750000000000004E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
